--- a/someevents.xlsx
+++ b/someevents.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -97,21 +97,39 @@
     <t>Коммандная олимпиада по программированию</t>
   </si>
   <si>
+    <t>2019-04-21</t>
+  </si>
+  <si>
+    <t>Навигация</t>
+  </si>
+  <si>
+    <t>2019-02-12</t>
+  </si>
+  <si>
+    <t>Студенческая олимпиада</t>
+  </si>
+  <si>
+    <t>Лингвистика</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>8:30</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
     <t>2020-11-27</t>
   </si>
   <si>
-    <t>10:00</t>
-  </si>
-  <si>
     <t>11:00</t>
   </si>
   <si>
     <t>Мясницкая, 11</t>
   </si>
   <si>
-    <t>Студенческая олимпиада</t>
-  </si>
-  <si>
     <t>Финансовая грамотность</t>
   </si>
   <si>
@@ -127,7 +145,7 @@
     <t>Трехсвят</t>
   </si>
   <si>
-    <t>2019-07-24 00:00:00</t>
+    <t>2019-07-25 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -459,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,7 +607,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -600,72 +618,135 @@
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8">
-        <v>280</v>
-      </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
-      <c r="I8">
-        <v>12</v>
-      </c>
-      <c r="J8">
-        <v>25</v>
-      </c>
-      <c r="K8">
-        <v>30</v>
-      </c>
-      <c r="L8" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10">
+        <v>120</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="K10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9">
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>280</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>30</v>
+      </c>
+      <c r="L11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12">
         <v>60</v>
       </c>
-      <c r="H9">
+      <c r="H12">
         <v>3</v>
       </c>
-      <c r="I9">
+      <c r="I12">
         <v>5</v>
       </c>
-      <c r="J9">
+      <c r="J12">
         <v>10</v>
       </c>
-      <c r="K9">
+      <c r="K12">
         <v>20</v>
       </c>
-      <c r="L9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>37</v>
+      <c r="L12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/someevents.xlsx
+++ b/someevents.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -52,100 +52,7 @@
     <t>Адресс</t>
   </si>
   <si>
-    <t>Высшая проба</t>
-  </si>
-  <si>
-    <t>Математика</t>
-  </si>
-  <si>
-    <t>2020-02-02</t>
-  </si>
-  <si>
-    <t>Филология</t>
-  </si>
-  <si>
-    <t>2020-02-08</t>
-  </si>
-  <si>
-    <t>Студенческая</t>
-  </si>
-  <si>
-    <t>Информатика</t>
-  </si>
-  <si>
-    <t>2020-03-31</t>
-  </si>
-  <si>
-    <t>Философия</t>
-  </si>
-  <si>
-    <t>2020-04-01</t>
-  </si>
-  <si>
-    <t>История</t>
-  </si>
-  <si>
-    <t>2020-02-03</t>
-  </si>
-  <si>
-    <t>Церемония награждения</t>
-  </si>
-  <si>
-    <t>2019-06-01</t>
-  </si>
-  <si>
-    <t>Коммандная олимпиада по программированию</t>
-  </si>
-  <si>
-    <t>2019-04-21</t>
-  </si>
-  <si>
-    <t>Навигация</t>
-  </si>
-  <si>
-    <t>2019-02-12</t>
-  </si>
-  <si>
-    <t>Студенческая олимпиада</t>
-  </si>
-  <si>
-    <t>Лингвистика</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>8:30</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>Мясницкая, 11</t>
-  </si>
-  <si>
-    <t>Финансовая грамотность</t>
-  </si>
-  <si>
-    <t>2020-03-11</t>
-  </si>
-  <si>
-    <t>7:30</t>
-  </si>
-  <si>
-    <t>9:00</t>
-  </si>
-  <si>
-    <t>Трехсвят</t>
-  </si>
-  <si>
-    <t>2019-07-25 00:00:00</t>
+    <t>2019-08-03 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -477,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,231 +429,8 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10">
-        <v>120</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>6</v>
-      </c>
-      <c r="J10">
-        <v>20</v>
-      </c>
-      <c r="K10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11">
-        <v>280</v>
-      </c>
-      <c r="H11">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <v>12</v>
-      </c>
-      <c r="J11">
-        <v>25</v>
-      </c>
-      <c r="K11">
-        <v>30</v>
-      </c>
-      <c r="L11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12">
-        <v>60</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
-      <c r="K12">
-        <v>20</v>
-      </c>
-      <c r="L12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/someevents.xlsx
+++ b/someevents.xlsx
@@ -52,7 +52,7 @@
     <t>Адресс</t>
   </si>
   <si>
-    <t>2019-08-03 00:00:00</t>
+    <t>2020-07-24 00:00:00</t>
   </si>
 </sst>
 </file>
